--- a/SG - CLASES SEPARADAS/BACKUP DATOS PARA ENTREGA/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BACKUP DATOS PARA ENTREGA/BASE DE DATOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\BACKUP DATOS PARA ENTREGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7EB559-DDF9-42E3-9B96-48801EE590A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46A12B77-75F4-4272-A258-91E750A02667}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="PRECIO DE COSTO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="MODIFICACIONES" sheetId="4" r:id="rId3"/>
     <sheet name="AGREGAR COMPRA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="158">
   <si>
     <t xml:space="preserve">PRECIO </t>
   </si>
@@ -509,7 +509,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -631,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -884,12 +884,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1097,36 +1108,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1134,7 +1115,46 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1458,26 +1478,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1561,15 +1581,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1676,34 +1696,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC7CB8-BD08-475E-BF73-5156E3B0BE3D}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="43" customWidth="1"/>
-    <col min="4" max="4" width="12" style="94" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="12" style="84" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="42"/>
+    <col min="15" max="16" width="11.42578125" customWidth="1"/>
     <col min="17" max="16384" width="11" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="43"/>
       <c r="M1" s="42"/>
       <c r="N1"/>
@@ -1924,12 +1947,12 @@
       <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="43"/>
       <c r="F7" s="59">
         <v>3001</v>
@@ -2322,10 +2345,10 @@
       <c r="B17" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="82" t="s">
         <v>149</v>
       </c>
       <c r="E17" s="43"/>
@@ -2358,16 +2381,16 @@
       <c r="P17" s="43"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="93">
+      <c r="A18" s="83">
         <v>43298</v>
       </c>
       <c r="B18" s="43">
         <v>1</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="84">
         <v>165</v>
       </c>
       <c r="E18" s="43" t="s">
@@ -2402,16 +2425,16 @@
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="93">
+      <c r="A19" s="83">
         <v>43298</v>
       </c>
       <c r="B19" s="43">
         <v>2</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="84">
         <v>498</v>
       </c>
       <c r="E19" s="43" t="s">
@@ -2420,16 +2443,16 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="93">
+      <c r="A20" s="83">
         <v>43298</v>
       </c>
       <c r="B20" s="43">
         <v>3</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="84">
         <v>214</v>
       </c>
       <c r="E20" s="43" t="s">
@@ -2456,19 +2479,19 @@
       <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="93">
+      <c r="A21" s="83">
         <v>43298</v>
       </c>
       <c r="B21" s="43">
         <v>4</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="84">
         <v>187</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="82" t="s">
         <v>154</v>
       </c>
       <c r="F21" s="74">
@@ -2496,19 +2519,19 @@
       <c r="P21" s="43"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="93">
+      <c r="A22" s="83">
         <v>43298</v>
       </c>
       <c r="B22" s="43">
         <v>5</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="84">
         <v>749</v>
       </c>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="82" t="s">
         <v>155</v>
       </c>
       <c r="F22" s="59">
@@ -2536,19 +2559,19 @@
       <c r="P22" s="43"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="93">
+      <c r="A23" s="83">
         <v>43299</v>
       </c>
       <c r="B23" s="43">
         <v>6</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="84">
         <v>958</v>
       </c>
-      <c r="E23" s="92" t="s">
+      <c r="E23" s="82" t="s">
         <v>151</v>
       </c>
       <c r="F23" s="59">
@@ -2576,19 +2599,19 @@
       <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="93">
+      <c r="A24" s="83">
         <v>43299</v>
       </c>
       <c r="B24" s="43">
         <v>7</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="84">
         <v>308</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="82" t="s">
         <v>152</v>
       </c>
       <c r="F24" s="59">
@@ -2616,19 +2639,19 @@
       <c r="P24" s="43"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="93">
+      <c r="A25" s="83">
         <v>43299</v>
       </c>
       <c r="B25" s="43">
         <v>8</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="94">
+      <c r="D25" s="84">
         <v>296</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="E25" s="82" t="s">
         <v>151</v>
       </c>
       <c r="F25" s="59">
@@ -2656,19 +2679,19 @@
       <c r="P25" s="43"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="93">
+      <c r="A26" s="83">
         <v>43299</v>
       </c>
       <c r="B26" s="43">
         <v>9</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="94">
+      <c r="D26" s="84">
         <v>645</v>
       </c>
-      <c r="E26" s="92" t="s">
+      <c r="E26" s="82" t="s">
         <v>156</v>
       </c>
       <c r="F26" s="60">
@@ -2692,19 +2715,19 @@
       <c r="P26" s="43"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93">
+      <c r="A27" s="83">
         <v>43299</v>
       </c>
       <c r="B27" s="43">
         <v>10</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="84">
         <v>2610</v>
       </c>
-      <c r="E27" s="92" t="s">
+      <c r="E27" s="82" t="s">
         <v>152</v>
       </c>
       <c r="F27" s="61">
@@ -2732,19 +2755,19 @@
       <c r="P27" s="43"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="93">
+      <c r="A28" s="83">
         <v>43299</v>
       </c>
       <c r="B28" s="43">
         <v>11</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="84">
         <v>328</v>
       </c>
-      <c r="E28" s="92" t="s">
+      <c r="E28" s="82" t="s">
         <v>151</v>
       </c>
       <c r="L28" s="43"/>
@@ -2754,19 +2777,19 @@
       <c r="P28" s="43"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="93">
+      <c r="A29" s="83">
         <v>43299</v>
       </c>
       <c r="B29" s="43">
         <v>12</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="94">
+      <c r="D29" s="84">
         <v>239</v>
       </c>
-      <c r="E29" s="92" t="s">
+      <c r="E29" s="82" t="s">
         <v>151</v>
       </c>
       <c r="L29" s="43"/>
@@ -2776,70 +2799,70 @@
       <c r="P29" s="43"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="93">
+      <c r="A30" s="83">
         <v>43300</v>
       </c>
       <c r="B30" s="43">
         <v>13</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="94">
+      <c r="D30" s="84">
         <v>220</v>
       </c>
-      <c r="E30" s="92" t="s">
+      <c r="E30" s="82" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="93">
+      <c r="A31" s="83">
         <v>43301</v>
       </c>
       <c r="B31" s="43">
         <v>14</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="94">
+      <c r="D31" s="84">
         <v>556</v>
       </c>
-      <c r="E31" s="92" t="s">
+      <c r="E31" s="82" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="93">
+      <c r="A32" s="83">
         <v>43302</v>
       </c>
       <c r="B32" s="43">
         <v>15</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="94">
+      <c r="D32" s="84">
         <v>294</v>
       </c>
-      <c r="E32" s="92" t="s">
+      <c r="E32" s="82" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="93">
+      <c r="A33" s="83">
         <v>43303</v>
       </c>
       <c r="B33" s="43">
         <v>16</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="94">
+      <c r="D33" s="84">
         <v>361</v>
       </c>
-      <c r="E33" s="92" t="s">
+      <c r="E33" s="82" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2857,29 +2880,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEBBD-090D-4434-A119-3402FA7D8625}">
   <dimension ref="C2:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="32" t="s">
@@ -2899,13 +2922,13 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="93" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2916,9 +2939,9 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="7" t="s">
         <v>48</v>
       </c>
@@ -2927,9 +2950,9 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="7" t="s">
         <v>48</v>
       </c>
@@ -2938,9 +2961,9 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -2951,9 +2974,9 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
@@ -2962,9 +2985,9 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
@@ -2973,8 +2996,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="37"/>
       <c r="F10" s="7" t="s">
         <v>48</v>
@@ -2984,9 +3007,9 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86" t="s">
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -2997,9 +3020,9 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="7" t="s">
         <v>48</v>
       </c>
@@ -3008,8 +3031,8 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="36" t="s">
         <v>60</v>
       </c>
@@ -3019,9 +3042,9 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -3032,9 +3055,9 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="7" t="s">
         <v>48</v>
       </c>
@@ -3043,18 +3066,18 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="7"/>
       <c r="G16" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="7" t="s">
         <v>48</v>
       </c>
@@ -3063,11 +3086,11 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="86"/>
-      <c r="D18" s="86" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="94" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="7"/>
@@ -3076,18 +3099,18 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="7"/>
       <c r="G19" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="7"/>
@@ -3096,27 +3119,27 @@
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="7"/>
       <c r="G21" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="7"/>
       <c r="G22" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86" t="s">
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="7"/>
@@ -3125,17 +3148,17 @@
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="7"/>
       <c r="G24" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="36" t="s">
         <v>60</v>
       </c>
@@ -3145,9 +3168,9 @@
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86" t="s">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="7"/>
@@ -3156,9 +3179,9 @@
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="37" t="s">
         <v>48</v>
       </c>
@@ -3167,9 +3190,9 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="37" t="s">
         <v>48</v>
       </c>
@@ -3178,20 +3201,20 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="37"/>
       <c r="G29" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="86"/>
-      <c r="D30" s="86" t="s">
+      <c r="C30" s="93"/>
+      <c r="D30" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="86"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="37" t="s">
         <v>48</v>
       </c>
@@ -3200,9 +3223,9 @@
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="37" t="s">
         <v>48</v>
       </c>
@@ -3211,9 +3234,9 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="37" t="s">
         <v>48</v>
       </c>
@@ -3222,9 +3245,9 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="37" t="s">
         <v>48</v>
       </c>
@@ -3233,67 +3256,67 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="37"/>
       <c r="G34" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="38"/>
       <c r="G35" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="38"/>
       <c r="G36" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="38"/>
       <c r="G37" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="37"/>
       <c r="G38" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="86"/>
-      <c r="D39" s="88" t="s">
+      <c r="C39" s="93"/>
+      <c r="D39" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="88"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="37"/>
       <c r="G39" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="86"/>
-      <c r="D40" s="88" t="s">
+      <c r="C40" s="93"/>
+      <c r="D40" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="88"/>
+      <c r="E40" s="95"/>
       <c r="F40" s="37"/>
       <c r="G40" s="30" t="s">
         <v>73</v>
@@ -3303,9 +3326,10 @@
       <c r="C41" t="s">
         <v>88</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" s="96" t="s">
         <v>99</v>
       </c>
+      <c r="E41" s="97"/>
       <c r="F41" s="36"/>
       <c r="G41" s="35" t="s">
         <v>98</v>
@@ -3434,12 +3458,18 @@
       <c r="D53" t="s">
         <v>106</v>
       </c>
+      <c r="F53" s="81" t="s">
+        <v>48</v>
+      </c>
       <c r="G53" s="41" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="C42:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D42:E51"/>
@@ -3456,8 +3486,6 @@
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="D18:D29"/>
     <mergeCell ref="D30:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3474,17 +3502,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
